--- a/Power_Supply_Sizing.xlsx
+++ b/Power_Supply_Sizing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\K-State\Weather_Stations_KSU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\Gustavo`s Personal\Estacao-Meteorologica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB49BB6-0193-48BF-83C5-C3F43AB0AE16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6354B8-3669-4859-952F-C88B6D6EE9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{B95CAF52-EAC4-464C-B276-45DC64B376E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Equipment</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Minimum plain sun hours</t>
   </si>
   <si>
-    <t>1.82 h/day</t>
-  </si>
-  <si>
     <t>Panel Having 75% yield -&gt;</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>Circuit</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>4.14 h/day</t>
+  </si>
+  <si>
+    <t>kWh</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>416560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:rowOff>135890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -578,7 +584,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +687,7 @@
     </row>
     <row r="11" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -693,20 +699,20 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <f>9.8/(1.82*0.75)</f>
-        <v>7.1794871794871797</v>
+        <f>9.8/(4.14*0.75)</f>
+        <v>3.1561996779388091</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -714,19 +720,29 @@
     </row>
     <row r="14" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
-        <f>0.48223*22</f>
-        <v>10.609059999999999</v>
+        <f>0.000409*3 / (1-0.5)</f>
+        <v>2.454E-3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <f>1000*C14/9</f>
+        <v>0.27266666666666667</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -734,7 +750,7 @@
     <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="11"/>
     </row>

--- a/Power_Supply_Sizing.xlsx
+++ b/Power_Supply_Sizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\Gustavo`s Personal\Estacao-Meteorologica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSUCrops\Documents\Gustavo_Santiago\Estacao-Meteorologica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6354B8-3669-4859-952F-C88B6D6EE9F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35177C0-8632-4C0F-BB53-361DEE1E7C93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{B95CAF52-EAC4-464C-B276-45DC64B376E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9690" xr2:uid="{B95CAF52-EAC4-464C-B276-45DC64B376E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Equipment</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Working 24h Power Required -&gt;</t>
-  </si>
-  <si>
-    <t>Circuit</t>
   </si>
   <si>
     <t>or</t>
@@ -185,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -213,9 +210,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,57 +225,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>416560</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Figura1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7821AAA9-C4FC-4CDA-A95C-A0441A5DA557}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:lum/>
-          <a:alphaModFix/>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1379220" y="4848225"/>
-          <a:ext cx="3676015" cy="1360805"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,18 +526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFCB6A-2728-4514-9EC9-6C23B99D3698}">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -605,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -616,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -627,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -638,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -660,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -671,7 +614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -682,10 +625,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
@@ -694,16 +637,16 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
@@ -718,7 +661,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -727,10 +670,10 @@
         <v>2.454E-3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14">
         <f>1000*C14/9</f>
@@ -740,27 +683,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="11"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D13:G13"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>